--- a/Reports/Bug Report.xlsx
+++ b/Reports/Bug Report.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Bug 2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Deffects" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -206,7 +206,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">t Hoeksken, BE» without special symbol «'» in the Search field; 2.</t>
+      <t xml:space="preserve">t Hoeksken, BE» without special symbol «'» in the Search field;                                2.</t>
     </r>
     <r>
       <rPr>
@@ -349,7 +349,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">A Cañiza, ES» which contains spanish letter «ñ» with regular letter «n» (in this form «A Caniza, ES») in the Search field; 2.Check that the name of the city «A Cañiza, ES»  is in the search results</t>
+      <t xml:space="preserve">A Cañiza, ES» which contains spanish letter «ñ» with regular letter «n» (in this form «A Caniza, ES») in the Search field;                                                                                                                                              2.Check that the name of the city «A Cañiza, ES»  is in the search results</t>
     </r>
   </si>
   <si>
@@ -444,7 +444,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,13 +454,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE7E5"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDEE7E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -527,7 +533,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -536,11 +542,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,12 +558,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -562,10 +576,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -586,7 +596,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -650,16 +660,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6535440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355680</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -672,8 +682,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1058400" y="2934360"/>
-          <a:ext cx="1956960" cy="3893400"/>
+          <a:off x="9195120" y="0"/>
+          <a:ext cx="1957320" cy="3892680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -687,16 +697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6534720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>309960</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>92880</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -709,8 +719,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1058400" y="9884160"/>
-          <a:ext cx="1911240" cy="3916080"/>
+          <a:off x="9194400" y="4456800"/>
+          <a:ext cx="1911600" cy="3915360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -730,17 +740,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="92.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +769,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -768,7 +778,7 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -777,18 +787,18 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>44774</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="45.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -797,7 +807,7 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -808,7 +818,7 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -817,18 +827,18 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -837,7 +847,7 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -846,7 +856,7 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -855,7 +865,7 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -864,177 +874,207 @@
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="8"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="8"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="40.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1"/>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
+      <c r="A40" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1"/>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="n">
-        <v>44774</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1"/>
-      <c r="B43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1"/>
-      <c r="B45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1"/>
-      <c r="B47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>34</v>
+      <c r="A48" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1"/>
-      <c r="B49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
+      <c r="A50" s="1"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:A4"/>
@@ -1042,11 +1082,11 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
